--- a/00.xlsx
+++ b/00.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashank kumar\Documents\GitHub\DailyDSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC10CC-3857-46DC-8A72-BF452C1F386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mir9fcPYxKhDosL3+N0+MNE1VuF3Q=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="465">
   <si>
     <t>Data Structures and Algorithms Crack Sheet</t>
   </si>
@@ -1408,78 +1417,85 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0563C1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1487,7 +1503,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1509,71 +1525,146 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1763,34 +1854,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B452" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.78"/>
-    <col customWidth="1" min="2" max="2" width="25.56"/>
-    <col customWidth="1" min="3" max="3" width="101.44"/>
-    <col customWidth="1" min="4" max="4" width="16.67"/>
-    <col customWidth="1" min="5" max="27" width="10.56"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="101.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1802,12 +1895,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -1818,10 +1911,13 @@
       <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="E6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
@@ -1832,10 +1928,13 @@
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="E7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -1846,10 +1945,13 @@
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="E8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -1860,10 +1962,13 @@
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="E9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>4</v>
@@ -1874,10 +1979,13 @@
       <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="E10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>4</v>
@@ -1888,10 +1996,13 @@
       <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="E11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -1902,10 +2013,13 @@
       <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="E12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>4</v>
@@ -1916,10 +2030,13 @@
       <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="E13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -1930,10 +2047,13 @@
       <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="E14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>4</v>
@@ -1944,10 +2064,13 @@
       <c r="D15" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="E15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>4</v>
@@ -1959,9 +2082,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>4</v>
@@ -1973,9 +2096,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>4</v>
@@ -1987,9 +2110,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>4</v>
@@ -2001,9 +2124,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>4</v>
@@ -2015,9 +2138,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
@@ -2029,9 +2152,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>4</v>
@@ -2043,9 +2166,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>4</v>
@@ -2057,9 +2180,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>4</v>
@@ -2071,9 +2194,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>4</v>
@@ -2085,9 +2208,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>4</v>
@@ -2099,9 +2222,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>4</v>
@@ -2113,9 +2236,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>4</v>
@@ -2127,9 +2250,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>4</v>
@@ -2141,9 +2264,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>4</v>
@@ -2155,9 +2278,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>4</v>
@@ -2169,9 +2292,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>4</v>
@@ -2183,9 +2306,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>4</v>
@@ -2197,9 +2320,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>4</v>
@@ -2211,9 +2334,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>4</v>
@@ -2225,9 +2348,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>4</v>
@@ -2239,9 +2362,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>4</v>
@@ -2253,9 +2376,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -2267,9 +2390,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>4</v>
@@ -2281,9 +2404,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>4</v>
@@ -2295,9 +2418,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>4</v>
@@ -2309,14 +2432,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="C42" s="12"/>
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="12"/>
@@ -2324,9 +2447,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>42</v>
@@ -2338,9 +2461,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>42</v>
@@ -2352,9 +2475,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>42</v>
@@ -2366,9 +2489,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>42</v>
@@ -2380,9 +2503,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>42</v>
@@ -2394,9 +2517,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>42</v>
@@ -2408,9 +2531,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>42</v>
@@ -2422,9 +2545,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>42</v>
@@ -2436,9 +2559,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>42</v>
@@ -2450,9 +2573,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>42</v>
@@ -2464,18 +2587,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="12"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>53</v>
@@ -2487,9 +2610,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>53</v>
@@ -2501,9 +2624,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>53</v>
@@ -2515,9 +2638,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>53</v>
@@ -2529,9 +2652,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>53</v>
@@ -2543,9 +2666,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>53</v>
@@ -2557,9 +2680,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>53</v>
@@ -2571,9 +2694,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>53</v>
@@ -2585,9 +2708,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>53</v>
@@ -2599,9 +2722,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>53</v>
@@ -2613,9 +2736,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>53</v>
@@ -2627,9 +2750,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>53</v>
@@ -2641,9 +2764,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>53</v>
@@ -2655,9 +2778,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>53</v>
@@ -2669,9 +2792,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>53</v>
@@ -2683,9 +2806,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>53</v>
@@ -2697,9 +2820,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>53</v>
@@ -2711,9 +2834,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>53</v>
@@ -2725,9 +2848,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>53</v>
@@ -2739,9 +2862,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>53</v>
@@ -2753,9 +2876,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>53</v>
@@ -2767,9 +2890,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>53</v>
@@ -2781,9 +2904,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>53</v>
@@ -2795,9 +2918,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>53</v>
@@ -2809,9 +2932,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>53</v>
@@ -2823,9 +2946,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>53</v>
@@ -2837,9 +2960,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>53</v>
@@ -2851,9 +2974,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>53</v>
@@ -2865,9 +2988,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>53</v>
@@ -2879,9 +3002,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>53</v>
@@ -2893,9 +3016,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>53</v>
@@ -2907,9 +3030,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>53</v>
@@ -2921,9 +3044,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>53</v>
@@ -2935,9 +3058,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>53</v>
@@ -2949,9 +3072,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>53</v>
@@ -2963,9 +3086,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>53</v>
@@ -2977,9 +3100,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>53</v>
@@ -2991,9 +3114,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>53</v>
@@ -3005,9 +3128,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>53</v>
@@ -3019,9 +3142,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>53</v>
@@ -3033,9 +3156,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>53</v>
@@ -3047,9 +3170,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>53</v>
@@ -3061,9 +3184,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>53</v>
@@ -3075,18 +3198,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="13"/>
       <c r="C100" s="12"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>97</v>
@@ -3098,9 +3221,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>97</v>
@@ -3112,9 +3235,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>97</v>
@@ -3126,9 +3249,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>97</v>
@@ -3140,9 +3263,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>97</v>
@@ -3154,9 +3277,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>97</v>
@@ -3168,9 +3291,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>97</v>
@@ -3182,9 +3305,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>97</v>
@@ -3196,9 +3319,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>97</v>
@@ -3210,9 +3333,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>97</v>
@@ -3224,9 +3347,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>97</v>
@@ -3238,9 +3361,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>97</v>
@@ -3252,9 +3375,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>97</v>
@@ -3266,9 +3389,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>97</v>
@@ -3280,9 +3403,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>97</v>
@@ -3294,9 +3417,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>97</v>
@@ -3308,9 +3431,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>97</v>
@@ -3322,9 +3445,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>97</v>
@@ -3336,9 +3459,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>97</v>
@@ -3350,9 +3473,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>97</v>
@@ -3364,9 +3487,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>97</v>
@@ -3378,9 +3501,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>97</v>
@@ -3392,9 +3515,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>97</v>
@@ -3406,9 +3529,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>97</v>
@@ -3420,9 +3543,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>97</v>
@@ -3434,9 +3557,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>97</v>
@@ -3448,9 +3571,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>97</v>
@@ -3462,9 +3585,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>97</v>
@@ -3476,9 +3599,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>97</v>
@@ -3490,9 +3613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>97</v>
@@ -3504,9 +3627,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>97</v>
@@ -3518,9 +3641,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>97</v>
@@ -3532,9 +3655,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>97</v>
@@ -3546,9 +3669,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>97</v>
@@ -3560,9 +3683,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>97</v>
@@ -3574,9 +3697,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>97</v>
@@ -3588,17 +3711,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5"/>
       <c r="C138" s="12"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>134</v>
@@ -3610,9 +3733,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>134</v>
@@ -3624,9 +3747,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>134</v>
@@ -3638,9 +3761,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>134</v>
@@ -3652,9 +3775,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>134</v>
@@ -3666,9 +3789,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>134</v>
@@ -3680,9 +3803,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>134</v>
@@ -3694,9 +3817,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>134</v>
@@ -3708,9 +3831,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>134</v>
@@ -3722,9 +3845,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>134</v>
@@ -3736,9 +3859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>134</v>
@@ -3750,9 +3873,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>134</v>
@@ -3764,9 +3887,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>134</v>
@@ -3778,9 +3901,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>134</v>
@@ -3792,9 +3915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>134</v>
@@ -3806,9 +3929,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>134</v>
@@ -3820,9 +3943,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>134</v>
@@ -3834,9 +3957,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>134</v>
@@ -3848,9 +3971,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>134</v>
@@ -3862,9 +3985,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>134</v>
@@ -3876,9 +3999,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>134</v>
@@ -3890,9 +4013,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>134</v>
@@ -3904,9 +4027,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>134</v>
@@ -3918,9 +4041,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>134</v>
@@ -3932,9 +4055,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>134</v>
@@ -3946,9 +4069,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>134</v>
@@ -3960,9 +4083,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B165" s="13" t="s">
         <v>134</v>
@@ -3974,9 +4097,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>134</v>
@@ -3988,9 +4111,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>134</v>
@@ -4002,9 +4125,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>134</v>
@@ -4016,9 +4139,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>134</v>
@@ -4030,9 +4153,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>134</v>
@@ -4044,9 +4167,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>134</v>
@@ -4058,9 +4181,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>134</v>
@@ -4072,9 +4195,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>134</v>
@@ -4086,9 +4209,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>134</v>
@@ -4100,17 +4223,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5"/>
       <c r="C176" s="12"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>171</v>
@@ -4122,9 +4245,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>171</v>
@@ -4136,9 +4259,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>171</v>
@@ -4150,9 +4273,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>171</v>
@@ -4164,9 +4287,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>171</v>
@@ -4178,9 +4301,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>171</v>
@@ -4192,9 +4315,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>171</v>
@@ -4206,9 +4329,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>171</v>
@@ -4220,9 +4343,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>171</v>
@@ -4234,9 +4357,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>171</v>
@@ -4248,9 +4371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>171</v>
@@ -4262,9 +4385,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>171</v>
@@ -4276,9 +4399,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>171</v>
@@ -4290,9 +4413,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>171</v>
@@ -4304,9 +4427,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>171</v>
@@ -4318,9 +4441,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>171</v>
@@ -4332,9 +4455,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>171</v>
@@ -4346,9 +4469,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>171</v>
@@ -4360,9 +4483,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>171</v>
@@ -4374,9 +4497,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>171</v>
@@ -4388,9 +4511,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>171</v>
@@ -4402,9 +4525,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>171</v>
@@ -4416,9 +4539,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>171</v>
@@ -4430,9 +4553,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>171</v>
@@ -4444,9 +4567,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>171</v>
@@ -4458,9 +4581,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>171</v>
@@ -4472,9 +4595,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>171</v>
@@ -4486,9 +4609,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>171</v>
@@ -4500,9 +4623,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>171</v>
@@ -4514,9 +4637,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>171</v>
@@ -4528,9 +4651,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>171</v>
@@ -4542,9 +4665,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>171</v>
@@ -4556,9 +4679,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>171</v>
@@ -4570,9 +4693,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>171</v>
@@ -4584,9 +4707,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>171</v>
@@ -4598,21 +4721,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="5"/>
       <c r="B212" s="13"/>
       <c r="C212" s="12"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="5"/>
       <c r="B213" s="13"/>
       <c r="C213" s="12"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>207</v>
@@ -4624,9 +4747,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>207</v>
@@ -4638,9 +4761,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>207</v>
@@ -4652,9 +4775,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>207</v>
@@ -4666,9 +4789,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>207</v>
@@ -4680,9 +4803,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>207</v>
@@ -4694,9 +4817,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>207</v>
@@ -4708,9 +4831,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>207</v>
@@ -4722,9 +4845,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>207</v>
@@ -4736,9 +4859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>207</v>
@@ -4750,9 +4873,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>207</v>
@@ -4764,9 +4887,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>207</v>
@@ -4778,9 +4901,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>207</v>
@@ -4792,9 +4915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>207</v>
@@ -4806,9 +4929,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>207</v>
@@ -4820,9 +4943,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>207</v>
@@ -4834,9 +4957,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>207</v>
@@ -4848,9 +4971,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>207</v>
@@ -4862,9 +4985,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>207</v>
@@ -4876,9 +4999,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>207</v>
@@ -4890,9 +5013,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>207</v>
@@ -4904,9 +5027,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>207</v>
@@ -4918,19 +5041,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="5"/>
       <c r="C236" s="12"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="5"/>
       <c r="C237" s="12"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>230</v>
@@ -4942,9 +5065,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>230</v>
@@ -4956,9 +5079,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>230</v>
@@ -4970,9 +5093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>230</v>
@@ -4984,9 +5107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>230</v>
@@ -4998,9 +5121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>230</v>
@@ -5012,9 +5135,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>230</v>
@@ -5026,9 +5149,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>230</v>
@@ -5040,9 +5163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>230</v>
@@ -5054,9 +5177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>230</v>
@@ -5068,9 +5191,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>230</v>
@@ -5082,9 +5205,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>230</v>
@@ -5096,9 +5219,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>230</v>
@@ -5110,9 +5233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>230</v>
@@ -5124,9 +5247,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>230</v>
@@ -5138,9 +5261,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>230</v>
@@ -5152,9 +5275,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>230</v>
@@ -5166,9 +5289,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>230</v>
@@ -5180,9 +5303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>230</v>
@@ -5194,9 +5317,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>230</v>
@@ -5208,9 +5331,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>230</v>
@@ -5222,9 +5345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>230</v>
@@ -5236,9 +5359,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>230</v>
@@ -5250,9 +5373,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>230</v>
@@ -5264,9 +5387,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>230</v>
@@ -5278,9 +5401,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>230</v>
@@ -5292,9 +5415,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>230</v>
@@ -5306,9 +5429,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>230</v>
@@ -5320,9 +5443,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>230</v>
@@ -5334,9 +5457,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>230</v>
@@ -5348,9 +5471,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>230</v>
@@ -5362,9 +5485,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>230</v>
@@ -5376,9 +5499,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>230</v>
@@ -5390,9 +5513,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>230</v>
@@ -5404,9 +5527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>230</v>
@@ -5418,19 +5541,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="5"/>
       <c r="C273" s="12"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="5"/>
       <c r="C274" s="12"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>265</v>
@@ -5442,9 +5565,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>265</v>
@@ -5456,9 +5579,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>265</v>
@@ -5470,9 +5593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>265</v>
@@ -5484,9 +5607,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>265</v>
@@ -5498,9 +5621,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>265</v>
@@ -5512,9 +5635,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>265</v>
@@ -5526,9 +5649,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>265</v>
@@ -5540,9 +5663,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>265</v>
@@ -5554,9 +5677,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>265</v>
@@ -5568,9 +5691,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>265</v>
@@ -5582,9 +5705,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>265</v>
@@ -5596,9 +5719,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>265</v>
@@ -5610,9 +5733,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>265</v>
@@ -5624,9 +5747,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>265</v>
@@ -5638,9 +5761,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>265</v>
@@ -5652,9 +5775,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>265</v>
@@ -5666,9 +5789,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>265</v>
@@ -5680,9 +5803,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>265</v>
@@ -5694,19 +5817,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="5"/>
       <c r="C294" s="12"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="5"/>
       <c r="C295" s="12"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>285</v>
@@ -5718,9 +5841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>285</v>
@@ -5732,9 +5855,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>285</v>
@@ -5746,9 +5869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>285</v>
@@ -5760,9 +5883,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>285</v>
@@ -5774,9 +5897,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>285</v>
@@ -5788,9 +5911,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>285</v>
@@ -5802,9 +5925,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>285</v>
@@ -5816,9 +5939,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>285</v>
@@ -5830,9 +5953,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>285</v>
@@ -5844,9 +5967,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>285</v>
@@ -5858,9 +5981,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>285</v>
@@ -5872,9 +5995,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>285</v>
@@ -5886,9 +6009,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>285</v>
@@ -5900,9 +6023,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>285</v>
@@ -5914,9 +6037,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>285</v>
@@ -5928,9 +6051,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>285</v>
@@ -5942,9 +6065,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>285</v>
@@ -5956,9 +6079,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>285</v>
@@ -5970,9 +6093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>285</v>
@@ -5984,9 +6107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>285</v>
@@ -5998,9 +6121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>285</v>
@@ -6012,9 +6135,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>285</v>
@@ -6026,9 +6149,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>285</v>
@@ -6040,9 +6163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>285</v>
@@ -6054,9 +6177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>285</v>
@@ -6068,9 +6191,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>285</v>
@@ -6082,9 +6205,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>285</v>
@@ -6096,9 +6219,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>285</v>
@@ -6110,9 +6233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>285</v>
@@ -6124,9 +6247,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>285</v>
@@ -6138,9 +6261,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>285</v>
@@ -6152,9 +6275,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>285</v>
@@ -6166,9 +6289,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>285</v>
@@ -6180,9 +6303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>285</v>
@@ -6194,9 +6317,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>285</v>
@@ -6208,9 +6331,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>285</v>
@@ -6222,9 +6345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>285</v>
@@ -6236,19 +6359,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="5"/>
       <c r="C334" s="12"/>
       <c r="D334" s="4"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="5"/>
       <c r="C335" s="12"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B336" s="13" t="s">
         <v>324</v>
@@ -6260,9 +6383,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B337" s="13" t="s">
         <v>324</v>
@@ -6274,9 +6397,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B338" s="13" t="s">
         <v>324</v>
@@ -6288,9 +6411,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B339" s="13" t="s">
         <v>324</v>
@@ -6302,9 +6425,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B340" s="13" t="s">
         <v>324</v>
@@ -6316,9 +6439,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B341" s="13" t="s">
         <v>324</v>
@@ -6330,9 +6453,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B342" s="13" t="s">
         <v>324</v>
@@ -6344,9 +6467,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B343" s="13" t="s">
         <v>324</v>
@@ -6358,9 +6481,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B344" s="13" t="s">
         <v>324</v>
@@ -6372,9 +6495,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>324</v>
@@ -6386,9 +6509,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B346" s="13" t="s">
         <v>324</v>
@@ -6400,9 +6523,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>324</v>
@@ -6414,9 +6537,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B348" s="13" t="s">
         <v>324</v>
@@ -6428,9 +6551,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>324</v>
@@ -6442,9 +6565,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B350" s="13" t="s">
         <v>324</v>
@@ -6456,9 +6579,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B351" s="13" t="s">
         <v>324</v>
@@ -6470,9 +6593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B352" s="13" t="s">
         <v>324</v>
@@ -6484,9 +6607,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>324</v>
@@ -6498,19 +6621,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="5"/>
       <c r="C354" s="12"/>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="5"/>
       <c r="C355" s="12"/>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B356" s="13" t="s">
         <v>343</v>
@@ -6522,9 +6645,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B357" s="13" t="s">
         <v>343</v>
@@ -6536,9 +6659,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B358" s="13" t="s">
         <v>343</v>
@@ -6550,9 +6673,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>343</v>
@@ -6564,9 +6687,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B360" s="13" t="s">
         <v>343</v>
@@ -6578,9 +6701,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B361" s="13" t="s">
         <v>343</v>
@@ -6592,9 +6715,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B362" s="13" t="s">
         <v>343</v>
@@ -6606,9 +6729,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B363" s="13" t="s">
         <v>343</v>
@@ -6620,9 +6743,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B364" s="13" t="s">
         <v>343</v>
@@ -6634,9 +6757,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>343</v>
@@ -6648,9 +6771,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B366" s="13" t="s">
         <v>343</v>
@@ -6662,9 +6785,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B367" s="13" t="s">
         <v>343</v>
@@ -6676,9 +6799,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B368" s="13" t="s">
         <v>343</v>
@@ -6690,9 +6813,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>343</v>
@@ -6704,9 +6827,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B370" s="13" t="s">
         <v>343</v>
@@ -6718,9 +6841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B371" s="13" t="s">
         <v>343</v>
@@ -6732,9 +6855,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B372" s="13" t="s">
         <v>343</v>
@@ -6746,9 +6869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B373" s="13" t="s">
         <v>343</v>
@@ -6760,9 +6883,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B374" s="13" t="s">
         <v>343</v>
@@ -6774,9 +6897,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B375" s="13" t="s">
         <v>343</v>
@@ -6788,9 +6911,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="B376" s="13" t="s">
         <v>343</v>
@@ -6802,9 +6925,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B377" s="13" t="s">
         <v>343</v>
@@ -6816,9 +6939,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="B378" s="13" t="s">
         <v>343</v>
@@ -6830,9 +6953,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B379" s="13" t="s">
         <v>343</v>
@@ -6844,9 +6967,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="B380" s="13" t="s">
         <v>343</v>
@@ -6858,9 +6981,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="B381" s="13" t="s">
         <v>343</v>
@@ -6872,9 +6995,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B382" s="13" t="s">
         <v>343</v>
@@ -6886,9 +7009,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>343</v>
@@ -6900,9 +7023,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B384" s="13" t="s">
         <v>343</v>
@@ -6914,9 +7037,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>343</v>
@@ -6928,9 +7051,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="B386" s="13" t="s">
         <v>343</v>
@@ -6942,9 +7065,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B387" s="13" t="s">
         <v>343</v>
@@ -6956,9 +7079,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="B388" s="13" t="s">
         <v>343</v>
@@ -6970,9 +7093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="B389" s="13" t="s">
         <v>343</v>
@@ -6984,9 +7107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="B390" s="13" t="s">
         <v>343</v>
@@ -6998,9 +7121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B391" s="13" t="s">
         <v>343</v>
@@ -7012,9 +7135,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B392" s="13" t="s">
         <v>343</v>
@@ -7026,9 +7149,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="B393" s="13" t="s">
         <v>343</v>
@@ -7040,9 +7163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B394" s="13" t="s">
         <v>343</v>
@@ -7054,9 +7177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>343</v>
@@ -7068,9 +7191,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="B396" s="13" t="s">
         <v>343</v>
@@ -7082,9 +7205,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B397" s="13" t="s">
         <v>343</v>
@@ -7096,9 +7219,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="B398" s="13" t="s">
         <v>343</v>
@@ -7110,9 +7233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B399" s="13" t="s">
         <v>343</v>
@@ -7124,19 +7247,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="5"/>
       <c r="C400" s="12"/>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="5"/>
       <c r="C401" s="12"/>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="B402" s="13" t="s">
         <v>387</v>
@@ -7148,9 +7271,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B403" s="13" t="s">
         <v>387</v>
@@ -7162,9 +7285,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B404" s="13" t="s">
         <v>387</v>
@@ -7176,9 +7299,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>387</v>
@@ -7190,9 +7313,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="B406" s="13" t="s">
         <v>387</v>
@@ -7204,9 +7327,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B407" s="13" t="s">
         <v>387</v>
@@ -7218,19 +7341,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="5"/>
       <c r="C408" s="12"/>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="5"/>
       <c r="C409" s="12"/>
       <c r="D409" s="4"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>393</v>
@@ -7242,9 +7365,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>393</v>
@@ -7256,9 +7379,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>393</v>
@@ -7270,9 +7393,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>393</v>
@@ -7284,9 +7407,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>393</v>
@@ -7298,9 +7421,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>393</v>
@@ -7312,9 +7435,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>393</v>
@@ -7326,9 +7449,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>393</v>
@@ -7340,9 +7463,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>393</v>
@@ -7354,9 +7477,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>393</v>
@@ -7368,9 +7491,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>393</v>
@@ -7382,9 +7505,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>393</v>
@@ -7396,9 +7519,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>393</v>
@@ -7410,9 +7533,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>393</v>
@@ -7424,9 +7547,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>393</v>
@@ -7438,9 +7561,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>393</v>
@@ -7452,9 +7575,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>393</v>
@@ -7466,9 +7589,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>393</v>
@@ -7480,9 +7603,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>393</v>
@@ -7494,9 +7617,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>393</v>
@@ -7508,9 +7631,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>393</v>
@@ -7522,9 +7645,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>393</v>
@@ -7536,9 +7659,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>393</v>
@@ -7550,9 +7673,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>393</v>
@@ -7564,9 +7687,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>393</v>
@@ -7578,9 +7701,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>393</v>
@@ -7592,9 +7715,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>393</v>
@@ -7606,9 +7729,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>393</v>
@@ -7620,9 +7743,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>393</v>
@@ -7634,9 +7757,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>393</v>
@@ -7648,9 +7771,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>393</v>
@@ -7662,9 +7785,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>393</v>
@@ -7676,9 +7799,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>393</v>
@@ -7690,9 +7813,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>393</v>
@@ -7704,9 +7827,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>393</v>
@@ -7718,9 +7841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>393</v>
@@ -7732,9 +7855,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>393</v>
@@ -7746,9 +7869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>393</v>
@@ -7760,9 +7883,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>393</v>
@@ -7774,9 +7897,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>393</v>
@@ -7788,9 +7911,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>393</v>
@@ -7802,9 +7925,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B451" s="6" t="s">
         <v>393</v>
@@ -7816,9 +7939,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>393</v>
@@ -7830,9 +7953,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>393</v>
@@ -7844,9 +7967,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>393</v>
@@ -7858,9 +7981,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>393</v>
@@ -7872,9 +7995,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>393</v>
@@ -7886,9 +8009,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>393</v>
@@ -7900,9 +8023,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>393</v>
@@ -7914,9 +8037,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>393</v>
@@ -7928,9 +8051,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>393</v>
@@ -7942,9 +8065,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>393</v>
@@ -7956,9 +8079,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>393</v>
@@ -7970,9 +8093,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>393</v>
@@ -7984,9 +8107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>393</v>
@@ -7998,9 +8121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>393</v>
@@ -8012,9 +8135,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>393</v>
@@ -8026,9 +8149,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>393</v>
@@ -8040,9 +8163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>393</v>
@@ -8054,9 +8177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B469" s="6" t="s">
         <v>393</v>
@@ -8068,20 +8191,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="5"/>
       <c r="C470" s="12"/>
       <c r="D470" s="4"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="5"/>
       <c r="B471" s="13"/>
       <c r="C471" s="12"/>
       <c r="D471" s="4"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="B472" s="6" t="s">
         <v>453</v>
@@ -8093,9 +8216,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>453</v>
@@ -8107,9 +8230,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="5">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>453</v>
@@ -8121,9 +8244,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>453</v>
@@ -8135,9 +8258,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>453</v>
@@ -8149,9 +8272,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>453</v>
@@ -8163,9 +8286,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>453</v>
@@ -8177,9 +8300,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>453</v>
@@ -8191,9 +8314,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
-        <v>447.0</v>
+        <v>447</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>453</v>
@@ -8205,9 +8328,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5">
-        <v>448.0</v>
+        <v>448</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>453</v>
@@ -8219,976 +8342,974 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="482" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C6"/>
-    <hyperlink r:id="rId2" ref="C7"/>
-    <hyperlink r:id="rId3" ref="C8"/>
-    <hyperlink r:id="rId4" ref="C9"/>
-    <hyperlink r:id="rId5" ref="C10"/>
-    <hyperlink r:id="rId6" ref="C11"/>
-    <hyperlink r:id="rId7" ref="C12"/>
-    <hyperlink r:id="rId8" ref="C13"/>
-    <hyperlink r:id="rId9" ref="C14"/>
-    <hyperlink r:id="rId10" ref="C15"/>
-    <hyperlink r:id="rId11" ref="C16"/>
-    <hyperlink r:id="rId12" ref="C17"/>
-    <hyperlink r:id="rId13" ref="C18"/>
-    <hyperlink r:id="rId14" ref="C19"/>
-    <hyperlink r:id="rId15" ref="C20"/>
-    <hyperlink r:id="rId16" ref="C21"/>
-    <hyperlink r:id="rId17" ref="C22"/>
-    <hyperlink r:id="rId18" ref="C23"/>
-    <hyperlink r:id="rId19" ref="C24"/>
-    <hyperlink r:id="rId20" ref="C25"/>
-    <hyperlink r:id="rId21" ref="C26"/>
-    <hyperlink r:id="rId22" ref="C27"/>
-    <hyperlink r:id="rId23" ref="C28"/>
-    <hyperlink r:id="rId24" ref="C29"/>
-    <hyperlink r:id="rId25" ref="C30"/>
-    <hyperlink r:id="rId26" ref="C31"/>
-    <hyperlink r:id="rId27" ref="C32"/>
-    <hyperlink r:id="rId28" ref="C33"/>
-    <hyperlink r:id="rId29" ref="C34"/>
-    <hyperlink r:id="rId30" ref="C35"/>
-    <hyperlink r:id="rId31" ref="C36"/>
-    <hyperlink r:id="rId32" ref="C37"/>
-    <hyperlink r:id="rId33" ref="C38"/>
-    <hyperlink r:id="rId34" ref="C39"/>
-    <hyperlink r:id="rId35" ref="C40"/>
-    <hyperlink r:id="rId36" ref="C41"/>
-    <hyperlink r:id="rId37" ref="C44"/>
-    <hyperlink r:id="rId38" ref="C45"/>
-    <hyperlink r:id="rId39" ref="C46"/>
-    <hyperlink r:id="rId40" ref="C47"/>
-    <hyperlink r:id="rId41" ref="C48"/>
-    <hyperlink r:id="rId42" ref="C49"/>
-    <hyperlink r:id="rId43" ref="C50"/>
-    <hyperlink r:id="rId44" ref="C51"/>
-    <hyperlink r:id="rId45" ref="C52"/>
-    <hyperlink r:id="rId46" ref="C53"/>
-    <hyperlink r:id="rId47" ref="C56"/>
-    <hyperlink r:id="rId48" ref="C57"/>
-    <hyperlink r:id="rId49" ref="C58"/>
-    <hyperlink r:id="rId50" ref="C60"/>
-    <hyperlink r:id="rId51" ref="C61"/>
-    <hyperlink r:id="rId52" ref="C62"/>
-    <hyperlink r:id="rId53" ref="C63"/>
-    <hyperlink r:id="rId54" ref="C64"/>
-    <hyperlink r:id="rId55" ref="C65"/>
-    <hyperlink r:id="rId56" ref="C66"/>
-    <hyperlink r:id="rId57" ref="C67"/>
-    <hyperlink r:id="rId58" ref="C68"/>
-    <hyperlink r:id="rId59" ref="C69"/>
-    <hyperlink r:id="rId60" ref="C70"/>
-    <hyperlink r:id="rId61" ref="C71"/>
-    <hyperlink r:id="rId62" ref="C72"/>
-    <hyperlink r:id="rId63" ref="C73"/>
-    <hyperlink r:id="rId64" ref="C74"/>
-    <hyperlink r:id="rId65" ref="C75"/>
-    <hyperlink r:id="rId66" ref="C76"/>
-    <hyperlink r:id="rId67" ref="C77"/>
-    <hyperlink r:id="rId68" ref="C78"/>
-    <hyperlink r:id="rId69" ref="C79"/>
-    <hyperlink r:id="rId70" ref="C80"/>
-    <hyperlink r:id="rId71" ref="C81"/>
-    <hyperlink r:id="rId72" ref="C82"/>
-    <hyperlink r:id="rId73" ref="C83"/>
-    <hyperlink r:id="rId74" ref="C84"/>
-    <hyperlink r:id="rId75" ref="C85"/>
-    <hyperlink r:id="rId76" ref="C86"/>
-    <hyperlink r:id="rId77" ref="C87"/>
-    <hyperlink r:id="rId78" ref="C88"/>
-    <hyperlink r:id="rId79" ref="C89"/>
-    <hyperlink r:id="rId80" ref="C90"/>
-    <hyperlink r:id="rId81" ref="C91"/>
-    <hyperlink r:id="rId82" ref="C92"/>
-    <hyperlink r:id="rId83" ref="C93"/>
-    <hyperlink r:id="rId84" ref="C94"/>
-    <hyperlink r:id="rId85" ref="C95"/>
-    <hyperlink r:id="rId86" ref="C96"/>
-    <hyperlink r:id="rId87" ref="C97"/>
-    <hyperlink r:id="rId88" ref="C98"/>
-    <hyperlink r:id="rId89" ref="C101"/>
-    <hyperlink r:id="rId90" ref="C102"/>
-    <hyperlink r:id="rId91" ref="C103"/>
-    <hyperlink r:id="rId92" ref="C104"/>
-    <hyperlink r:id="rId93" ref="C105"/>
-    <hyperlink r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." ref="C106"/>
-    <hyperlink r:id="rId95" ref="C107"/>
-    <hyperlink r:id="rId96" ref="C108"/>
-    <hyperlink r:id="rId97" ref="C109"/>
-    <hyperlink r:id="rId98" ref="C110"/>
-    <hyperlink r:id="rId99" ref="C111"/>
-    <hyperlink r:id="rId100" ref="C112"/>
-    <hyperlink r:id="rId101" ref="C113"/>
-    <hyperlink r:id="rId102" ref="C114"/>
-    <hyperlink r:id="rId103" ref="C115"/>
-    <hyperlink r:id="rId104" ref="C116"/>
-    <hyperlink r:id="rId105" ref="C117"/>
-    <hyperlink r:id="rId106" ref="C118"/>
-    <hyperlink r:id="rId107" ref="C119"/>
-    <hyperlink r:id="rId108" ref="C120"/>
-    <hyperlink r:id="rId109" ref="C121"/>
-    <hyperlink r:id="rId110" ref="C122"/>
-    <hyperlink r:id="rId111" ref="C123"/>
-    <hyperlink r:id="rId112" ref="C124"/>
-    <hyperlink r:id="rId113" ref="C125"/>
-    <hyperlink r:id="rId114" ref="C126"/>
-    <hyperlink r:id="rId115" ref="C127"/>
-    <hyperlink r:id="rId116" ref="C128"/>
-    <hyperlink r:id="rId117" ref="C129"/>
-    <hyperlink r:id="rId118" ref="C130"/>
-    <hyperlink r:id="rId119" ref="C131"/>
-    <hyperlink r:id="rId120" ref="C132"/>
-    <hyperlink r:id="rId121" ref="C133"/>
-    <hyperlink r:id="rId122" ref="C134"/>
-    <hyperlink r:id="rId123" ref="C135"/>
-    <hyperlink r:id="rId124" ref="C136"/>
-    <hyperlink r:id="rId125" ref="C139"/>
-    <hyperlink r:id="rId126" ref="C140"/>
-    <hyperlink r:id="rId127" ref="C141"/>
-    <hyperlink r:id="rId128" ref="C142"/>
-    <hyperlink r:id="rId129" ref="C143"/>
-    <hyperlink r:id="rId130" ref="C144"/>
-    <hyperlink r:id="rId131" ref="C145"/>
-    <hyperlink r:id="rId132" ref="C146"/>
-    <hyperlink r:id="rId133" ref="C147"/>
-    <hyperlink r:id="rId134" ref="C148"/>
-    <hyperlink r:id="rId135" ref="C149"/>
-    <hyperlink r:id="rId136" ref="C150"/>
-    <hyperlink r:id="rId137" ref="C151"/>
-    <hyperlink r:id="rId138" ref="C152"/>
-    <hyperlink r:id="rId139" ref="C153"/>
-    <hyperlink r:id="rId140" ref="C154"/>
-    <hyperlink r:id="rId141" ref="C155"/>
-    <hyperlink r:id="rId142" ref="C156"/>
-    <hyperlink r:id="rId143" ref="C157"/>
-    <hyperlink r:id="rId144" ref="C158"/>
-    <hyperlink r:id="rId145" ref="C159"/>
-    <hyperlink r:id="rId146" ref="C160"/>
-    <hyperlink r:id="rId147" ref="C161"/>
-    <hyperlink r:id="rId148" ref="C162"/>
-    <hyperlink r:id="rId149" ref="C163"/>
-    <hyperlink r:id="rId150" ref="C166"/>
-    <hyperlink r:id="rId151" ref="C167"/>
-    <hyperlink r:id="rId152" ref="C168"/>
-    <hyperlink r:id="rId153" ref="C169"/>
-    <hyperlink r:id="rId154" ref="C170"/>
-    <hyperlink r:id="rId155" ref="C171"/>
-    <hyperlink r:id="rId156" ref="C172"/>
-    <hyperlink r:id="rId157" ref="C173"/>
-    <hyperlink r:id="rId158" ref="C174"/>
-    <hyperlink r:id="rId159" ref="C177"/>
-    <hyperlink r:id="rId160" ref="C178"/>
-    <hyperlink r:id="rId161" ref="C179"/>
-    <hyperlink r:id="rId162" ref="C180"/>
-    <hyperlink r:id="rId163" ref="C181"/>
-    <hyperlink r:id="rId164" ref="C182"/>
-    <hyperlink r:id="rId165" ref="C183"/>
-    <hyperlink r:id="rId166" ref="C184"/>
-    <hyperlink r:id="rId167" ref="C185"/>
-    <hyperlink r:id="rId168" ref="C186"/>
-    <hyperlink r:id="rId169" ref="C187"/>
-    <hyperlink r:id="rId170" ref="C188"/>
-    <hyperlink r:id="rId171" ref="C189"/>
-    <hyperlink r:id="rId172" ref="C190"/>
-    <hyperlink r:id="rId173" ref="C191"/>
-    <hyperlink r:id="rId174" ref="C192"/>
-    <hyperlink r:id="rId175" ref="C193"/>
-    <hyperlink r:id="rId176" ref="C194"/>
-    <hyperlink r:id="rId177" ref="C195"/>
-    <hyperlink r:id="rId178" ref="C196"/>
-    <hyperlink r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." ref="C197"/>
-    <hyperlink r:id="rId180" ref="C198"/>
-    <hyperlink r:id="rId181" ref="C199"/>
-    <hyperlink r:id="rId182" ref="C200"/>
-    <hyperlink r:id="rId183" ref="C201"/>
-    <hyperlink r:id="rId184" ref="C202"/>
-    <hyperlink r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." ref="C203"/>
-    <hyperlink r:id="rId186" ref="C204"/>
-    <hyperlink r:id="rId187" ref="C205"/>
-    <hyperlink r:id="rId188" ref="C206"/>
-    <hyperlink r:id="rId189" ref="C207"/>
-    <hyperlink r:id="rId190" ref="C208"/>
-    <hyperlink r:id="rId191" ref="C209"/>
-    <hyperlink r:id="rId192" ref="C210"/>
-    <hyperlink r:id="rId193" ref="C211"/>
-    <hyperlink r:id="rId194" ref="C214"/>
-    <hyperlink r:id="rId195" ref="C215"/>
-    <hyperlink r:id="rId196" ref="C216"/>
-    <hyperlink r:id="rId197" ref="C217"/>
-    <hyperlink r:id="rId198" ref="C218"/>
-    <hyperlink r:id="rId199" ref="C219"/>
-    <hyperlink r:id="rId200" ref="C220"/>
-    <hyperlink r:id="rId201" ref="C221"/>
-    <hyperlink r:id="rId202" ref="C222"/>
-    <hyperlink r:id="rId203" ref="C223"/>
-    <hyperlink r:id="rId204" ref="C224"/>
-    <hyperlink r:id="rId205" ref="C225"/>
-    <hyperlink r:id="rId206" ref="C226"/>
-    <hyperlink r:id="rId207" ref="C227"/>
-    <hyperlink r:id="rId208" ref="C228"/>
-    <hyperlink r:id="rId209" ref="C229"/>
-    <hyperlink r:id="rId210" ref="C230"/>
-    <hyperlink r:id="rId211" ref="C231"/>
-    <hyperlink r:id="rId212" ref="C232"/>
-    <hyperlink r:id="rId213" ref="C233"/>
-    <hyperlink r:id="rId214" ref="C234"/>
-    <hyperlink r:id="rId215" ref="C235"/>
-    <hyperlink r:id="rId216" ref="C238"/>
-    <hyperlink r:id="rId217" ref="C239"/>
-    <hyperlink r:id="rId218" ref="C240"/>
-    <hyperlink r:id="rId219" ref="C241"/>
-    <hyperlink r:id="rId220" ref="C242"/>
-    <hyperlink r:id="rId221" ref="C243"/>
-    <hyperlink r:id="rId222" ref="C244"/>
-    <hyperlink r:id="rId223" ref="C245"/>
-    <hyperlink r:id="rId224" ref="C246"/>
-    <hyperlink r:id="rId225" ref="C247"/>
-    <hyperlink r:id="rId226" ref="C248"/>
-    <hyperlink r:id="rId227" ref="C249"/>
-    <hyperlink r:id="rId228" ref="C250"/>
-    <hyperlink r:id="rId229" ref="C251"/>
-    <hyperlink r:id="rId230" ref="C252"/>
-    <hyperlink r:id="rId231" ref="C253"/>
-    <hyperlink r:id="rId232" ref="C254"/>
-    <hyperlink r:id="rId233" ref="C255"/>
-    <hyperlink r:id="rId234" ref="C256"/>
-    <hyperlink r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." ref="C257"/>
-    <hyperlink r:id="rId236" ref="C258"/>
-    <hyperlink r:id="rId237" ref="C259"/>
-    <hyperlink r:id="rId238" ref="C260"/>
-    <hyperlink r:id="rId239" ref="C261"/>
-    <hyperlink r:id="rId240" ref="C262"/>
-    <hyperlink r:id="rId241" ref="C263"/>
-    <hyperlink r:id="rId242" ref="C264"/>
-    <hyperlink r:id="rId243" ref="C265"/>
-    <hyperlink r:id="rId244" ref="C266"/>
-    <hyperlink r:id="rId245" ref="C267"/>
-    <hyperlink r:id="rId246" ref="C268"/>
-    <hyperlink r:id="rId247" ref="C269"/>
-    <hyperlink r:id="rId248" ref="C270"/>
-    <hyperlink r:id="rId249" ref="C271"/>
-    <hyperlink r:id="rId250" ref="C272"/>
-    <hyperlink r:id="rId251" ref="C275"/>
-    <hyperlink r:id="rId252" ref="C276"/>
-    <hyperlink r:id="rId253" ref="C277"/>
-    <hyperlink r:id="rId254" ref="C278"/>
-    <hyperlink r:id="rId255" ref="C279"/>
-    <hyperlink r:id="rId256" ref="C280"/>
-    <hyperlink r:id="rId257" ref="C281"/>
-    <hyperlink r:id="rId258" ref="C282"/>
-    <hyperlink r:id="rId259" ref="C283"/>
-    <hyperlink r:id="rId260" ref="C284"/>
-    <hyperlink r:id="rId261" ref="C285"/>
-    <hyperlink r:id="rId262" ref="C286"/>
-    <hyperlink r:id="rId263" ref="C287"/>
-    <hyperlink r:id="rId264" ref="C288"/>
-    <hyperlink r:id="rId265" ref="C289"/>
-    <hyperlink r:id="rId266" ref="C290"/>
-    <hyperlink r:id="rId267" ref="C291"/>
-    <hyperlink r:id="rId268" ref="C292"/>
-    <hyperlink r:id="rId269" ref="C293"/>
-    <hyperlink r:id="rId270" ref="C296"/>
-    <hyperlink r:id="rId271" ref="C297"/>
-    <hyperlink r:id="rId272" ref="C298"/>
-    <hyperlink r:id="rId273" ref="C299"/>
-    <hyperlink r:id="rId274" ref="C300"/>
-    <hyperlink r:id="rId275" ref="C301"/>
-    <hyperlink r:id="rId276" ref="C302"/>
-    <hyperlink r:id="rId277" ref="C303"/>
-    <hyperlink r:id="rId278" ref="C304"/>
-    <hyperlink r:id="rId279" ref="C305"/>
-    <hyperlink r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." ref="C306"/>
-    <hyperlink r:id="rId281" ref="C307"/>
-    <hyperlink r:id="rId282" ref="C308"/>
-    <hyperlink r:id="rId283" ref="C309"/>
-    <hyperlink r:id="rId284" ref="C310"/>
-    <hyperlink r:id="rId285" ref="C311"/>
-    <hyperlink r:id="rId286" ref="C312"/>
-    <hyperlink r:id="rId287" ref="C313"/>
-    <hyperlink r:id="rId288" ref="C314"/>
-    <hyperlink r:id="rId289" ref="C315"/>
-    <hyperlink r:id="rId290" ref="C316"/>
-    <hyperlink r:id="rId291" ref="C317"/>
-    <hyperlink r:id="rId292" ref="C318"/>
-    <hyperlink r:id="rId293" ref="C319"/>
-    <hyperlink r:id="rId294" ref="C320"/>
-    <hyperlink r:id="rId295" ref="C321"/>
-    <hyperlink r:id="rId296" ref="C322"/>
-    <hyperlink r:id="rId297" ref="C323"/>
-    <hyperlink r:id="rId298" ref="C324"/>
-    <hyperlink r:id="rId299" ref="C325"/>
-    <hyperlink r:id="rId300" ref="C326"/>
-    <hyperlink r:id="rId301" ref="C327"/>
-    <hyperlink r:id="rId302" ref="C328"/>
-    <hyperlink r:id="rId303" ref="C329"/>
-    <hyperlink r:id="rId304" ref="C330"/>
-    <hyperlink r:id="rId305" ref="C331"/>
-    <hyperlink r:id="rId306" ref="C332"/>
-    <hyperlink r:id="rId307" ref="C333"/>
-    <hyperlink r:id="rId308" ref="C336"/>
-    <hyperlink r:id="rId309" ref="C337"/>
-    <hyperlink r:id="rId310" ref="C338"/>
-    <hyperlink r:id="rId311" ref="C339"/>
-    <hyperlink r:id="rId312" ref="C340"/>
-    <hyperlink r:id="rId313" ref="C341"/>
-    <hyperlink r:id="rId314" ref="C342"/>
-    <hyperlink r:id="rId315" ref="C343"/>
-    <hyperlink r:id="rId316" ref="C344"/>
-    <hyperlink r:id="rId317" ref="C345"/>
-    <hyperlink r:id="rId318" ref="C346"/>
-    <hyperlink r:id="rId319" ref="C347"/>
-    <hyperlink r:id="rId320" ref="C348"/>
-    <hyperlink r:id="rId321" ref="C349"/>
-    <hyperlink r:id="rId322" ref="C350"/>
-    <hyperlink r:id="rId323" ref="C351"/>
-    <hyperlink r:id="rId324" ref="C352"/>
-    <hyperlink r:id="rId325" ref="C353"/>
-    <hyperlink r:id="rId326" ref="C356"/>
-    <hyperlink r:id="rId327" ref="C357"/>
-    <hyperlink r:id="rId328" ref="C358"/>
-    <hyperlink r:id="rId329" ref="C359"/>
-    <hyperlink r:id="rId330" ref="C360"/>
-    <hyperlink r:id="rId331" ref="C361"/>
-    <hyperlink r:id="rId332" ref="C362"/>
-    <hyperlink r:id="rId333" ref="C363"/>
-    <hyperlink r:id="rId334" ref="C364"/>
-    <hyperlink r:id="rId335" ref="C365"/>
-    <hyperlink r:id="rId336" ref="C366"/>
-    <hyperlink r:id="rId337" ref="C367"/>
-    <hyperlink r:id="rId338" ref="C368"/>
-    <hyperlink r:id="rId339" ref="C369"/>
-    <hyperlink r:id="rId340" ref="C370"/>
-    <hyperlink r:id="rId341" ref="C371"/>
-    <hyperlink r:id="rId342" ref="C372"/>
-    <hyperlink r:id="rId343" ref="C373"/>
-    <hyperlink r:id="rId344" ref="C374"/>
-    <hyperlink r:id="rId345" ref="C375"/>
-    <hyperlink r:id="rId346" ref="C376"/>
-    <hyperlink r:id="rId347" ref="C377"/>
-    <hyperlink r:id="rId348" ref="C378"/>
-    <hyperlink r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="C379"/>
-    <hyperlink r:id="rId350" ref="C380"/>
-    <hyperlink r:id="rId351" ref="C381"/>
-    <hyperlink r:id="rId352" ref="C382"/>
-    <hyperlink r:id="rId353" ref="C383"/>
-    <hyperlink r:id="rId354" ref="C384"/>
-    <hyperlink r:id="rId355" ref="C385"/>
-    <hyperlink r:id="rId356" ref="C386"/>
-    <hyperlink r:id="rId357" ref="C387"/>
-    <hyperlink r:id="rId358" ref="C388"/>
-    <hyperlink r:id="rId359" ref="C389"/>
-    <hyperlink r:id="rId360" ref="C390"/>
-    <hyperlink r:id="rId361" ref="C391"/>
-    <hyperlink r:id="rId362" ref="C392"/>
-    <hyperlink r:id="rId363" ref="C393"/>
-    <hyperlink r:id="rId364" ref="C394"/>
-    <hyperlink r:id="rId365" ref="C395"/>
-    <hyperlink r:id="rId366" ref="C396"/>
-    <hyperlink r:id="rId367" ref="C397"/>
-    <hyperlink r:id="rId368" ref="C398"/>
-    <hyperlink r:id="rId369" ref="C399"/>
-    <hyperlink r:id="rId370" ref="C402"/>
-    <hyperlink r:id="rId371" ref="C403"/>
-    <hyperlink r:id="rId372" ref="C404"/>
-    <hyperlink r:id="rId373" ref="C405"/>
-    <hyperlink r:id="rId374" ref="C406"/>
-    <hyperlink r:id="rId375" ref="C407"/>
-    <hyperlink r:id="rId376" ref="C410"/>
-    <hyperlink r:id="rId377" ref="C411"/>
-    <hyperlink r:id="rId378" ref="C412"/>
-    <hyperlink r:id="rId379" ref="C413"/>
-    <hyperlink r:id="rId380" ref="C414"/>
-    <hyperlink r:id="rId381" ref="C415"/>
-    <hyperlink r:id="rId382" ref="C416"/>
-    <hyperlink r:id="rId383" ref="C417"/>
-    <hyperlink r:id="rId384" ref="C418"/>
-    <hyperlink r:id="rId385" ref="C419"/>
-    <hyperlink r:id="rId386" ref="C420"/>
-    <hyperlink r:id="rId387" ref="C421"/>
-    <hyperlink r:id="rId388" ref="C422"/>
-    <hyperlink r:id="rId389" ref="C423"/>
-    <hyperlink r:id="rId390" ref="C424"/>
-    <hyperlink r:id="rId391" ref="C425"/>
-    <hyperlink r:id="rId392" ref="C426"/>
-    <hyperlink r:id="rId393" ref="C427"/>
-    <hyperlink r:id="rId394" ref="C428"/>
-    <hyperlink r:id="rId395" ref="C429"/>
-    <hyperlink r:id="rId396" ref="C430"/>
-    <hyperlink r:id="rId397" ref="C431"/>
-    <hyperlink r:id="rId398" ref="C432"/>
-    <hyperlink r:id="rId399" ref="C433"/>
-    <hyperlink r:id="rId400" ref="C434"/>
-    <hyperlink r:id="rId401" ref="C435"/>
-    <hyperlink r:id="rId402" ref="C436"/>
-    <hyperlink r:id="rId403" ref="C437"/>
-    <hyperlink r:id="rId404" ref="C438"/>
-    <hyperlink r:id="rId405" ref="C439"/>
-    <hyperlink r:id="rId406" ref="C440"/>
-    <hyperlink r:id="rId407" ref="C441"/>
-    <hyperlink r:id="rId408" ref="C442"/>
-    <hyperlink r:id="rId409" ref="C443"/>
-    <hyperlink r:id="rId410" ref="C444"/>
-    <hyperlink r:id="rId411" ref="C445"/>
-    <hyperlink r:id="rId412" ref="C446"/>
-    <hyperlink r:id="rId413" ref="C447"/>
-    <hyperlink r:id="rId414" ref="C448"/>
-    <hyperlink r:id="rId415" ref="C449"/>
-    <hyperlink r:id="rId416" ref="C450"/>
-    <hyperlink r:id="rId417" ref="C451"/>
-    <hyperlink r:id="rId418" ref="C452"/>
-    <hyperlink r:id="rId419" ref="C453"/>
-    <hyperlink r:id="rId420" ref="C454"/>
-    <hyperlink r:id="rId421" ref="C455"/>
-    <hyperlink r:id="rId422" ref="C456"/>
-    <hyperlink r:id="rId423" ref="C457"/>
-    <hyperlink r:id="rId424" ref="C458"/>
-    <hyperlink r:id="rId425" ref="C459"/>
-    <hyperlink r:id="rId426" ref="C460"/>
-    <hyperlink r:id="rId427" ref="C461"/>
-    <hyperlink r:id="rId428" ref="C462"/>
-    <hyperlink r:id="rId429" ref="C463"/>
-    <hyperlink r:id="rId430" ref="C464"/>
-    <hyperlink r:id="rId431" ref="C465"/>
-    <hyperlink r:id="rId432" ref="C466"/>
-    <hyperlink r:id="rId433" ref="C467"/>
-    <hyperlink r:id="rId434" ref="C468"/>
-    <hyperlink r:id="rId435" ref="C469"/>
-    <hyperlink r:id="rId436" ref="C472"/>
-    <hyperlink r:id="rId437" ref="C473"/>
-    <hyperlink r:id="rId438" ref="C474"/>
-    <hyperlink r:id="rId439" ref="C475"/>
-    <hyperlink r:id="rId440" ref="C476"/>
-    <hyperlink r:id="rId441" ref="C477"/>
-    <hyperlink r:id="rId442" ref="C478"/>
-    <hyperlink r:id="rId443" ref="C479"/>
-    <hyperlink r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." ref="C480"/>
-    <hyperlink r:id="rId445" ref="C481"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C105" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C106" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C107" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C108" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C109" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C110" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C111" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C112" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C113" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C114" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C115" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C116" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C117" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C118" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C119" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C120" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C121" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C122" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C123" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C124" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C125" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C126" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C127" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C130" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C131" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C132" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C133" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C134" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C135" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C136" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C356" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C357" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C358" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C359" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C360" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C361" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C362" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C363" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C364" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C365" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C366" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C367" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C368" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C369" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C370" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C371" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C372" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C373" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C374" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C375" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C376" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C377" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C378" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C380" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C381" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C382" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C383" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C384" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C385" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C386" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C387" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C388" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C389" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C390" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C391" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C392" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C393" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C394" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C396" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C397" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C398" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C399" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C402" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C403" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C404" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C405" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C406" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C407" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C410" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C411" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C412" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C413" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C414" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C415" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C416" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C417" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C418" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C419" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C420" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C421" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C422" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C423" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C424" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C425" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C426" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C427" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C428" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C429" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C430" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C431" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C432" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C433" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C434" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C435" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C436" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C437" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C438" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C439" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C440" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C441" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C442" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C443" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C444" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C445" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C446" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C447" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C448" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C449" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C451" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C452" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C453" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C454" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C455" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C456" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C457" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C458" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C459" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C460" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C461" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C462" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C463" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C464" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C465" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C466" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C467" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C468" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C469" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C472" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C473" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C474" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C475" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C476" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C477" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C478" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C481" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId446"/>
 </worksheet>
 </file>